--- a/data/scheduling_DNN/predict/0.1/result6.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result6.xlsx
@@ -570,10 +570,10 @@
         <v>3.167232036590576</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4673255681991577</v>
       </c>
       <c r="W2" t="n">
-        <v>6.826282024383545</v>
+        <v>7.289494514465332</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.404112100601196</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9377766251564026</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3426826894283295</v>
+        <v>0.2174687683582306</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9456422328948975</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.9357478022575378</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2414489239454269</v>
+        <v>9.78997559286654e-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8893940448760986</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4812749028205872</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05417286604642868</v>
+        <v>0.1665612310171127</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8721561431884766</v>
       </c>
       <c r="V6" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9928291440010071</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1903748065233231</v>
+        <v>0.0145619735121727</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9303970336914062</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4849429130554199</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2115934789180756</v>
+        <v>0.1984293758869171</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.881749153137207</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4851425290107727</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1796144396066666</v>
+        <v>0.157296821475029</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8765780925750732</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4995580911636353</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1685267835855484</v>
+        <v>0.1421440839767456</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8735430240631104</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4915111660957336</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1913284212350845</v>
+        <v>0.1459483355283737</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9339530467987061</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4809802174568176</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2418118864297867</v>
+        <v>0.2051843851804733</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8872480392456055</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.9098283648490906</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1529139876365662</v>
+        <v>0.0005098711117170751</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9296009540557861</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5096533298492432</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2910611629486084</v>
+        <v>0.1763560026884079</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.891880989074707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4671149253845215</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07146114856004715</v>
+        <v>0.1804262101650238</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9860789775848389</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4759376049041748</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2957828640937805</v>
+        <v>0.260244220495224</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9325368404388428</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.8825504183769226</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1449619829654694</v>
+        <v>0.0024986423086375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9169769287109375</v>
       </c>
       <c r="V17" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5135475993156433</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1902882158756256</v>
+        <v>0.1627552211284637</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9982678890228271</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4669057130813599</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2783616185188293</v>
+        <v>0.2823457717895508</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9128479957580566</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4742996096611023</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2273576110601425</v>
+        <v>0.1923246830701828</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9222478866577148</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8936761021614075</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2364186197519302</v>
+        <v>0.0008163468446582556</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9135510921478271</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4780002236366272</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1288494020700455</v>
+        <v>0.1897045522928238</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.7137069702148438</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5341157913208008</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06216686591506004</v>
+        <v>0.03225298970937729</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.7073030471801758</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4811266660690308</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006916048936545849</v>
+        <v>0.05115575715899467</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5411200523376465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5546631217002869</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0001544177939649671</v>
+        <v>0.0001834147260524333</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5510289669036865</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4781898856163025</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004698774311691523</v>
+        <v>0.005305531900376081</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5308189392089844</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.486817479133606</v>
       </c>
       <c r="W26" t="n">
-        <v>0.004181580152362585</v>
+        <v>0.001936128479428589</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5781209468841553</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4753881096839905</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02017328329384327</v>
+        <v>0.01055403612554073</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183680057525635</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5549229383468628</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003698791144415736</v>
+        <v>0.001336263143457472</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.556318998336792</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.5138675570487976</v>
       </c>
       <c r="W29" t="n">
-        <v>0.008549629710614681</v>
+        <v>0.001802124897949398</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5419950485229492</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5164602398872375</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0007249795598909259</v>
+        <v>0.0006520264432765543</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5267479419708252</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.8622312545776367</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0007070402498356998</v>
+        <v>0.1125490516424179</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.579246997833252</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.8854824304580688</v>
       </c>
       <c r="W32" t="n">
-        <v>0.002378333592787385</v>
+        <v>0.09378013759851456</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5367209911346436</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8838187456130981</v>
       </c>
       <c r="W33" t="n">
-        <v>0.006735698785632849</v>
+        <v>0.1204768493771553</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5306520462036133</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9480640292167664</v>
       </c>
       <c r="W34" t="n">
-        <v>0.008164140395820141</v>
+        <v>0.1742327660322189</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5144469738006592</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4852679371833801</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01546273287385702</v>
+        <v>0.0008514162036590278</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5168359279632568</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4843477606773376</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01903350837528706</v>
+        <v>0.001055481028743088</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5154819488525391</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5542551875114441</v>
       </c>
       <c r="W37" t="n">
-        <v>0.00246548792347312</v>
+        <v>0.001503364066593349</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4670067429542542</v>
       </c>
       <c r="W38" t="n">
-        <v>0.007080578245222569</v>
+        <v>0.00279664620757103</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173659324645996</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5549988746643066</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04816970601677895</v>
+        <v>0.001416238374076784</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5195119380950928</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.9265004396438599</v>
       </c>
       <c r="W40" t="n">
-        <v>0.009830988943576813</v>
+        <v>0.1656396389007568</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5212240219116211</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.9327436685562134</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0002858055522665381</v>
+        <v>0.169348418712616</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4712200164794922</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.4788681864738464</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0218585766851902</v>
+        <v>5.849450462847017e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4529068470001221</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9705769419670105</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02688553370535374</v>
+        <v>0.2679823338985443</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3916239738464355</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.8710771203041077</v>
       </c>
       <c r="W44" t="n">
-        <v>0.003928510472178459</v>
+        <v>0.2298753261566162</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921079635620117</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.9308698177337646</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006734451744705439</v>
+        <v>0.2902643382549286</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887619972229004</v>
       </c>
       <c r="V46" t="n">
-        <v>0.473088413476944</v>
+        <v>0.8771266341209412</v>
       </c>
       <c r="W46" t="n">
-        <v>0.007110944483429193</v>
+        <v>0.2385000139474869</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.404749870300293</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4784475564956665</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06365235149860382</v>
+        <v>0.00543134892359376</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3937609195709229</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9215517640113831</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05172954872250557</v>
+        <v>0.2785631716251373</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4548780918121338</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4775925278663635</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02924993075430393</v>
+        <v>0.0005159456050023437</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3898990154266357</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4865407943725586</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1168176084756851</v>
+        <v>0.009339633397758007</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3914351463317871</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4669622778892517</v>
       </c>
       <c r="W51" t="n">
-        <v>0.05157744884490967</v>
+        <v>0.005704347509890795</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3868470191955566</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.9814412593841553</v>
       </c>
       <c r="W52" t="n">
-        <v>0.002391712041571736</v>
+        <v>0.353542298078537</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.38736891746521</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4781607389450073</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002394890412688255</v>
+        <v>0.008243154734373093</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3908920288085938</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.928277850151062</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1813444942235947</v>
+        <v>0.2887835204601288</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4495871067047119</v>
       </c>
       <c r="V55" t="n">
-        <v>0.471180647611618</v>
+        <v>0.9201648235321045</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0004662809951696545</v>
+        <v>0.221443384885788</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3925981521606445</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5483587384223938</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05343077704310417</v>
+        <v>0.0242613609880209</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3888208866119385</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9502227306365967</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01390884723514318</v>
+        <v>0.315172016620636</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.43886399269104</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.478402853012085</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0003532838891260326</v>
+        <v>0.001563321449793875</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3891241550445557</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4812864661216736</v>
       </c>
       <c r="W59" t="n">
-        <v>0.05589420720934868</v>
+        <v>0.008493891917169094</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865189552307129</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5359373092651367</v>
       </c>
       <c r="W60" t="n">
-        <v>0.005040518939495087</v>
+        <v>0.02232584543526173</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881959915161133</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.866961658000946</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07309310883283615</v>
+        <v>0.2292165607213974</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.025092840194702</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.8844255805015564</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1608407944440842</v>
+        <v>0.01978727802634239</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699619770050049</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5633779168128967</v>
       </c>
       <c r="W63" t="n">
-        <v>0.03870650008320808</v>
+        <v>0.09399378299713135</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683059215545654</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.47846519947052</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1008738577365875</v>
+        <v>0.1519757956266403</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9314489364624023</v>
       </c>
       <c r="V65" t="n">
-        <v>0.624763011932373</v>
+        <v>0.8862746357917786</v>
       </c>
       <c r="W65" t="n">
-        <v>0.09405625611543655</v>
+        <v>0.002040717517957091</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8678009510040283</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9441942572593689</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1321428269147873</v>
+        <v>0.005835937336087227</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8738498687744141</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9064703583717346</v>
       </c>
       <c r="W67" t="n">
-        <v>0.08827921748161316</v>
+        <v>0.001064096344634891</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9042618274688721</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4862687587738037</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08976516127586365</v>
+        <v>0.1747182011604309</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9332449436187744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.8666935563087463</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1332039535045624</v>
+        <v>0.004429087042808533</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>1.078771114349365</v>
       </c>
       <c r="V70" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4884217381477356</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2781045138835907</v>
+        <v>0.3485123813152313</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8822128772735596</v>
       </c>
       <c r="V71" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4771154522895813</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1996966600418091</v>
+        <v>0.1641039252281189</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8696539402008057</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.9490157961845398</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1021995544433594</v>
+        <v>0.006298304069787264</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.913909912109375</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4761742949485779</v>
       </c>
       <c r="W73" t="n">
-        <v>0.08405870199203491</v>
+        <v>0.1916124671697617</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8965461254119873</v>
       </c>
       <c r="V74" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.8981945514678955</v>
       </c>
       <c r="W74" t="n">
-        <v>0.02230832166969776</v>
+        <v>2.717308461797074e-06</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8689498901367188</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9410993456840515</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1723345965147018</v>
+        <v>0.005205543711781502</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8827078342437744</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9661644697189331</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04392850026488304</v>
+        <v>0.006965009961277246</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8865110874176025</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.951204776763916</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1465519815683365</v>
+        <v>0.004185273312032223</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.866753101348877</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.499021589756012</v>
       </c>
       <c r="W78" t="n">
-        <v>0.06034781411290169</v>
+        <v>0.1352264583110809</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8675868511199951</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.9266011118888855</v>
       </c>
       <c r="W79" t="n">
-        <v>0.002611065516248345</v>
+        <v>0.003482682863250375</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8629810810089111</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9577268958091736</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0026018510106951</v>
+        <v>0.008976769633591175</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8668689727783203</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.5541911721229553</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04402189329266548</v>
+        <v>0.09776740521192551</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5625960826873779</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4797176718711853</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01602131128311157</v>
+        <v>0.006868830882012844</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5548849105834961</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8777723908424377</v>
       </c>
       <c r="W83" t="n">
-        <v>0.002117744414135814</v>
+        <v>0.1042563244700432</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.533872663974762</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0006779552786611021</v>
+        <v>0.0001561930839670822</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4790098071098328</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001610808307304978</v>
+        <v>0.001807026914320886</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5168092250823975</v>
       </c>
       <c r="V86" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4849658012390137</v>
       </c>
       <c r="W86" t="n">
-        <v>0.04341387003660202</v>
+        <v>0.001014003646560013</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5132699012756348</v>
       </c>
       <c r="V87" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9064841866493225</v>
       </c>
       <c r="W87" t="n">
-        <v>0.09333623945713043</v>
+        <v>0.1546174734830856</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.515678882598877</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9214966297149658</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0102163590490818</v>
+        <v>0.1646880507469177</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5146379470825195</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9634205102920532</v>
       </c>
       <c r="W89" t="n">
-        <v>0.001495129428803921</v>
+        <v>0.201405793428421</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5181679725646973</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4779223203659058</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01930130273103714</v>
+        <v>0.001619712566025555</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5433709621429443</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.8922055959701538</v>
       </c>
       <c r="W91" t="n">
-        <v>0.006025128066539764</v>
+        <v>0.1216856017708778</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.8608598113059998</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0002815210318658501</v>
+        <v>0.1170597076416016</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5162639617919922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.569115161895752</v>
+        <v>0.899803102016449</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002793249441310763</v>
+        <v>0.1471022665500641</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5133109092712402</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4997536540031433</v>
       </c>
       <c r="W94" t="n">
-        <v>0.005974195431917906</v>
+        <v>0.0001837991731008515</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5201830863952637</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5341974496841431</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0003400866698939353</v>
+        <v>0.0001964023831533268</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.575124979019165</v>
       </c>
       <c r="V96" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4837327003479004</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01935162581503391</v>
+        <v>0.008352548815310001</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5194261074066162</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4889832735061646</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001084715710021555</v>
+        <v>0.0009267661371268332</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5185620784759521</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.9496896862983704</v>
       </c>
       <c r="W98" t="n">
-        <v>0.004013002384454012</v>
+        <v>0.1858710199594498</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5155520439147949</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5341336131095886</v>
       </c>
       <c r="W99" t="n">
-        <v>0.04761746898293495</v>
+        <v>0.0003452747187111527</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5199511051177979</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9207123517990112</v>
       </c>
       <c r="W100" t="n">
-        <v>0.002444398822262883</v>
+        <v>0.1606095731258392</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5420560836791992</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.9273088574409485</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01124209258705378</v>
+        <v>0.1484196931123734</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4420690536499023</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9568228125572205</v>
       </c>
       <c r="W102" t="n">
-        <v>0.004441495984792709</v>
+        <v>0.2649714350700378</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4139640331268311</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4791685938835144</v>
       </c>
       <c r="W103" t="n">
-        <v>0.002520227106288075</v>
+        <v>0.004251634702086449</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941290378570557</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9253341555595398</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05299491807818413</v>
+        <v>0.2821788787841797</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4021251201629639</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.9282721877098083</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0004085982218384743</v>
+        <v>0.2768307328224182</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888130187988281</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.5142725706100464</v>
       </c>
       <c r="W106" t="n">
-        <v>9.617297473596409e-05</v>
+        <v>0.01574009843170643</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3869071006774902</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5124905109405518</v>
       </c>
       <c r="W107" t="n">
-        <v>6.50084184599109e-05</v>
+        <v>0.01577119342982769</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3894751071929932</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9430586099624634</v>
       </c>
       <c r="W108" t="n">
-        <v>0.05494924262166023</v>
+        <v>0.3064546883106232</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3875510692596436</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9840288758277893</v>
       </c>
       <c r="W109" t="n">
-        <v>0.07433965057134628</v>
+        <v>0.3557857871055603</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3908200263977051</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5485806465148926</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02773927338421345</v>
+        <v>0.0248884130269289</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3929450511932373</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8652768135070801</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01232084166258574</v>
+        <v>0.2230972945690155</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3923311233520508</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.554237961769104</v>
       </c>
       <c r="W112" t="n">
-        <v>0.08745636790990829</v>
+        <v>0.02621382474899292</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3937950134277344</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.9597461223602295</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1748259514570236</v>
+        <v>0.3203006684780121</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389441967010498</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.8623759150505066</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0001190041366498917</v>
+        <v>0.2236665189266205</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.397819995880127</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5049891471862793</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005320164375007153</v>
+        <v>0.01148522738367319</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3987360000610352</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.8632197976112366</v>
       </c>
       <c r="W116" t="n">
-        <v>0.003481251420453191</v>
+        <v>0.2157451957464218</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3913397789001465</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5544875860214233</v>
       </c>
       <c r="W117" t="n">
-        <v>0.004481527488678694</v>
+        <v>0.02661720663309097</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4122710227966309</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.8654934167861938</v>
       </c>
       <c r="W118" t="n">
-        <v>0.002135085174813867</v>
+        <v>0.2054105401039124</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3941869735717773</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5164599418640137</v>
       </c>
       <c r="W119" t="n">
-        <v>0.005868562031537294</v>
+        <v>0.01495067868381739</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.457205057144165</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.9871019721031189</v>
       </c>
       <c r="W120" t="n">
-        <v>1.774313602709299e-07</v>
+        <v>0.2807907462120056</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.5027899742126465</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.9351016283035278</v>
       </c>
       <c r="W121" t="n">
-        <v>0.002420370001345873</v>
+        <v>0.1868933588266373</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8689439296722412</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.8988689780235291</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1877822428941727</v>
+        <v>0.0008955085068009794</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8908219337463379</v>
       </c>
       <c r="V123" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5128746628761292</v>
       </c>
       <c r="W123" t="n">
-        <v>0.02320415154099464</v>
+        <v>0.1428441405296326</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.931210994720459</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4911718368530273</v>
       </c>
       <c r="W124" t="n">
-        <v>0.07460973411798477</v>
+        <v>0.1936344653367996</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8772821426391602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5112870931625366</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05029419437050819</v>
+        <v>0.1339523792266846</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8750848770141602</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5536094903945923</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1380483508110046</v>
+        <v>0.1033464223146439</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.874798059463501</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5584031343460083</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1045133322477341</v>
+        <v>0.1001057475805283</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9408159255981445</v>
       </c>
       <c r="V128" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9154549837112427</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04339976608753204</v>
+        <v>0.0006431773654185236</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8837559223175049</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9358907341957092</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1664702743291855</v>
+        <v>0.002718038624152541</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8654310703277588</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5100202560424805</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1520235687494278</v>
+        <v>0.1263168454170227</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8660948276519775</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5339388847351074</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1597751080989838</v>
+        <v>0.1103275716304779</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9294381141662598</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.5536719560623169</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1419549286365509</v>
+        <v>0.1412001997232437</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9595000743865967</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5095795392990112</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1113768965005875</v>
+        <v>0.2024284899234772</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8669309616088867</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.9615371823310852</v>
       </c>
       <c r="W134" t="n">
-        <v>0.08474380522966385</v>
+        <v>0.008950336836278439</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8834428787231445</v>
       </c>
       <c r="V135" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4669879674911499</v>
       </c>
       <c r="W135" t="n">
-        <v>0.09938634186983109</v>
+        <v>0.1734346896409988</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9176211357116699</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4673898816108704</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2913749516010284</v>
+        <v>0.2027081847190857</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8771548271179199</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4865797162055969</v>
       </c>
       <c r="W137" t="n">
-        <v>0.0968325063586235</v>
+        <v>0.1525489240884781</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8673210144042969</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9463611841201782</v>
       </c>
       <c r="W138" t="n">
-        <v>0.09935936331748962</v>
+        <v>0.006247348617762327</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8726670742034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9840254783630371</v>
       </c>
       <c r="W139" t="n">
-        <v>0.01852037012577057</v>
+        <v>0.01240069419145584</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8932230472564697</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5321073532104492</v>
       </c>
       <c r="W140" t="n">
-        <v>0.07394033670425415</v>
+        <v>0.1304045468568802</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8777329921722412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5320693850517273</v>
       </c>
       <c r="W141" t="n">
-        <v>0.00380087411031127</v>
+        <v>0.1194833293557167</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5309648513793945</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4784887433052063</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01625705510377884</v>
+        <v>0.002753741806373</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5217170715332031</v>
       </c>
       <c r="V143" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4913854002952576</v>
       </c>
       <c r="W143" t="n">
-        <v>0.08435952663421631</v>
+        <v>0.0009200102649629116</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5491008758544922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9424879550933838</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0005268909735605121</v>
+        <v>0.1547533869743347</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4913578033447266</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02630492672324181</v>
+        <v>0.0009755048085935414</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5217640399932861</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5134995579719543</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0009694601758383214</v>
+        <v>6.83016623952426e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5553059577941895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4671885967254639</v>
       </c>
       <c r="W147" t="n">
-        <v>0.007154044229537249</v>
+        <v>0.007764669135212898</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5254931449890137</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4781630039215088</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0008970502531155944</v>
+        <v>0.002240142319351435</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5233750343322754</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9621750116348267</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003291622037068009</v>
+        <v>0.1925454139709473</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5240139961242676</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4782066345214844</v>
       </c>
       <c r="W150" t="n">
-        <v>0.08947231620550156</v>
+        <v>0.002098314464092255</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210261344909668</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4672171473503113</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004549162928014994</v>
+        <v>0.00289540714584291</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5267980098724365</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.503631591796875</v>
       </c>
       <c r="W152" t="n">
-        <v>0.004793980158865452</v>
+        <v>0.0005366828991100192</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183980464935303</v>
       </c>
       <c r="V153" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4814827442169189</v>
       </c>
       <c r="W153" t="n">
-        <v>0.001116169150918722</v>
+        <v>0.001362739596515894</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5185818672180176</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4675279259681702</v>
       </c>
       <c r="W154" t="n">
-        <v>0.005859725642949343</v>
+        <v>0.002606504829600453</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5758249759674072</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5536079406738281</v>
       </c>
       <c r="W155" t="n">
-        <v>1.346348312836199e-07</v>
+        <v>0.000493596657179296</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.9425297379493713</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0007671286002732813</v>
+        <v>0.1751420497894287</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5309000015258789</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.8612536787986755</v>
       </c>
       <c r="W157" t="n">
-        <v>0.001432299381121993</v>
+        <v>0.1091335490345955</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5392780303955078</v>
       </c>
       <c r="V158" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4720539450645447</v>
       </c>
       <c r="W158" t="n">
-        <v>0.001358219422399998</v>
+        <v>0.004519077483564615</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5395951271057129</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4774894714355469</v>
       </c>
       <c r="W159" t="n">
-        <v>0.001265591359697282</v>
+        <v>0.003857112489640713</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.583798885345459</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.9628666043281555</v>
       </c>
       <c r="W160" t="n">
-        <v>0.000153040251461789</v>
+        <v>0.1436923295259476</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5275847911834717</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5641987323760986</v>
       </c>
       <c r="W161" t="n">
-        <v>0.008093290962278843</v>
+        <v>0.001340580638498068</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3983168601989746</v>
       </c>
       <c r="V162" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4849602580070496</v>
       </c>
       <c r="W162" t="n">
-        <v>0.05106164515018463</v>
+        <v>0.007507078349590302</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4094059467315674</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4835329055786133</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05475364252924919</v>
+        <v>0.005494805984199047</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.398500919342041</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4783639311790466</v>
       </c>
       <c r="W164" t="n">
-        <v>0.08214481920003891</v>
+        <v>0.006378100719302893</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4017469882965088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.8615091443061829</v>
       </c>
       <c r="W165" t="n">
-        <v>0.04945855587720871</v>
+        <v>0.2113812416791916</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4928431510925293</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9865941405296326</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02813358418643475</v>
+        <v>0.2437900453805923</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4006388187408447</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5360156297683716</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01022921968251467</v>
+        <v>0.01832688041031361</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4077339172363281</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5136089324951172</v>
       </c>
       <c r="W168" t="n">
-        <v>0.02559728175401688</v>
+        <v>0.01120951864868402</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3965508937835693</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5497305989265442</v>
       </c>
       <c r="W169" t="n">
-        <v>0.05244071409106255</v>
+        <v>0.0234640222042799</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8837596774101257</v>
       </c>
       <c r="W170" t="n">
-        <v>0.006565229967236519</v>
+        <v>0.2383838295936584</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3903357982635498</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5357008576393127</v>
       </c>
       <c r="W171" t="n">
-        <v>0.000102959900686983</v>
+        <v>0.0211310014128685</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4547970294952393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5545377731323242</v>
       </c>
       <c r="W172" t="n">
-        <v>1.193917432829039e-05</v>
+        <v>0.009948216378688812</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4022529125213623</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4991154074668884</v>
       </c>
       <c r="W173" t="n">
-        <v>0.05752644315361977</v>
+        <v>0.009382342919707298</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4036719799041748</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5168045163154602</v>
       </c>
       <c r="W174" t="n">
-        <v>0.00106926285661757</v>
+        <v>0.01279897056519985</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.394834041595459</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.478237509727478</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01131223794072866</v>
+        <v>0.006956138648092747</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987739086151123</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.5339037775993347</v>
       </c>
       <c r="W176" t="n">
-        <v>6.62338497932069e-05</v>
+        <v>0.01826008222997189</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007768630981445</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5542459487915039</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01068802084773779</v>
+        <v>0.02355276048183441</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.448930025100708</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4785393476486206</v>
       </c>
       <c r="W178" t="n">
-        <v>0.03068618103861809</v>
+        <v>0.0008767119725234807</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.479240894317627</v>
       </c>
       <c r="W179" t="n">
-        <v>0.00362870329990983</v>
+        <v>0.007114739622920752</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952810764312744</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4671089053153992</v>
       </c>
       <c r="W180" t="n">
-        <v>0.177339181303978</v>
+        <v>0.005159236956387758</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4066030979156494</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5321236252784729</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0007425312069244683</v>
+        <v>0.01575540192425251</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8780241012573242</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.8716966509819031</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1632940471172333</v>
+        <v>4.003662616014481e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9284200668334961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4777750968933105</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2424548715353012</v>
+        <v>0.2030808925628662</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8708159923553467</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5340335369110107</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1009007394313812</v>
+        <v>0.1134224236011505</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8763139247894287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4705094695091248</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1379348635673523</v>
+        <v>0.1646772623062134</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8720200061798096</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9091282486915588</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06070138514041901</v>
+        <v>0.001377021661028266</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9399688243865967</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9318453669548035</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2056761234998703</v>
+        <v>6.599056359846145e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.873917818069458</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.5595846772193909</v>
       </c>
       <c r="W188" t="n">
-        <v>0.09883620589971542</v>
+        <v>0.09880532324314117</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8764328956604004</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5357696413993835</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1769079118967056</v>
+        <v>0.1160514503717422</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8718578815460205</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.4746274352073669</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1708152890205383</v>
+        <v>0.1577920317649841</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405422210693359</v>
       </c>
       <c r="V191" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5299321413040161</v>
       </c>
       <c r="W191" t="n">
-        <v>0.03766010329127312</v>
+        <v>0.1686006337404251</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8910238742828369</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4866220951080322</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1501176655292511</v>
+        <v>0.1635407954454422</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>1.038957834243774</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4670042991638184</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2919344007968903</v>
+        <v>0.3271308541297913</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9335501194000244</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.52668297290802</v>
       </c>
       <c r="W194" t="n">
-        <v>0.09853597730398178</v>
+        <v>0.165540874004364</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9252970218658447</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4740910530090332</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09235803782939911</v>
+        <v>0.2035868316888809</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8666849136352539</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.9143531918525696</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1536602079868317</v>
+        <v>0.002272264799103141</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695650100708008</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4836118221282959</v>
       </c>
       <c r="W197" t="n">
-        <v>0.05097984150052071</v>
+        <v>0.1489598602056503</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8755500316619873</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.8835920691490173</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1046453341841698</v>
+        <v>6.467436469392851e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9040899276733398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.486732006072998</v>
       </c>
       <c r="W199" t="n">
-        <v>0.06112199276685715</v>
+        <v>0.1741876304149628</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8684718608856201</v>
       </c>
       <c r="V200" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.884884774684906</v>
       </c>
       <c r="W200" t="n">
-        <v>0.002051971852779388</v>
+        <v>0.0002693837450351566</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8767650127410889</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5321029424667358</v>
       </c>
       <c r="W201" t="n">
-        <v>0.06370072811841965</v>
+        <v>0.1187919452786446</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.5031074285507202</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0865301787853241</v>
+        <v>0.000379604724003002</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.575247049331665</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9692065715789795</v>
       </c>
       <c r="W203" t="n">
-        <v>4.208441532682627e-05</v>
+        <v>0.155204102396965</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5330410003662109</v>
       </c>
       <c r="V204" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.8634738326072693</v>
       </c>
       <c r="W204" t="n">
-        <v>0.04029558226466179</v>
+        <v>0.1091858595609665</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5222020149230957</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4868242144584656</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0006749508902430534</v>
+        <v>0.001251588808372617</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5206129550933838</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4851499795913696</v>
       </c>
       <c r="W206" t="n">
-        <v>0.005168488714843988</v>
+        <v>0.001257622614502907</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5229430198669434</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.9233312010765076</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002823611022904515</v>
+        <v>0.1603107005357742</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5288169384002686</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.4969614148139954</v>
       </c>
       <c r="W208" t="n">
-        <v>0.004137430340051651</v>
+        <v>0.001014774432405829</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5241458415985107</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.46698397397995</v>
       </c>
       <c r="W209" t="n">
-        <v>0.007726527284830809</v>
+        <v>0.003267479129135609</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5320758819580078</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4710491895675659</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02307518385350704</v>
+        <v>0.003724257228896022</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5268800258636475</v>
       </c>
       <c r="V211" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9393739104270935</v>
       </c>
       <c r="W211" t="n">
-        <v>0.03920091316103935</v>
+        <v>0.1701512038707733</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5245158672332764</v>
       </c>
       <c r="V212" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9130211472511292</v>
       </c>
       <c r="W212" t="n">
-        <v>0.007830223068594933</v>
+        <v>0.1509363502264023</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5290980339050293</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.8754662871360779</v>
       </c>
       <c r="W213" t="n">
-        <v>0.005098579451441765</v>
+        <v>0.1199709698557854</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5553569793701172</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5339017510414124</v>
       </c>
       <c r="W214" t="n">
-        <v>0.002873210702091455</v>
+        <v>0.0004603268171194941</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5244209766387939</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4805619120597839</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0005318719195201993</v>
+        <v>0.001923617557622492</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5262329578399658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4708104133605957</v>
       </c>
       <c r="W216" t="n">
-        <v>0.002839682158082724</v>
+        <v>0.003071658546105027</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5246539115905762</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4811061024665833</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01024049613624811</v>
+        <v>0.001896411646157503</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5219841003417969</v>
       </c>
       <c r="V218" t="n">
-        <v>0.390147477388382</v>
+        <v>0.4773143529891968</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01738089509308338</v>
+        <v>0.001995386322960258</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5761749744415283</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5035277009010315</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01964534260332584</v>
+        <v>0.005277626216411591</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5279750823974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.8675715923309326</v>
       </c>
       <c r="W220" t="n">
-        <v>0.008454884402453899</v>
+        <v>0.1153257861733437</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.523306131362915</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.9034566283226013</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01783026568591595</v>
+        <v>0.1445143967866898</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3898880481719971</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4702397584915161</v>
       </c>
       <c r="W222" t="n">
-        <v>0.009491610340774059</v>
+        <v>0.006456397473812103</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3953080177307129</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.499504029750824</v>
       </c>
       <c r="W223" t="n">
-        <v>0.003916807007044554</v>
+        <v>0.01085680909454823</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3944268226623535</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4634679555892944</v>
       </c>
       <c r="W224" t="n">
-        <v>0.004065734334290028</v>
+        <v>0.004766677971929312</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.397845983505249</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9892039895057678</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06044748052954674</v>
+        <v>0.3497042953968048</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3971030712127686</v>
       </c>
       <c r="V226" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4899886846542358</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0544939748942852</v>
+        <v>0.008627736940979958</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3997070789337158</v>
       </c>
       <c r="V227" t="n">
-        <v>0.476378470659256</v>
+        <v>0.4774962663650513</v>
       </c>
       <c r="W227" t="n">
-        <v>0.005878502503037453</v>
+        <v>0.006051157601177692</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3976969718933105</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9563125967979431</v>
       </c>
       <c r="W228" t="n">
-        <v>0.05000464990735054</v>
+        <v>0.3120514154434204</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4578390121459961</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5339564681053162</v>
       </c>
       <c r="W229" t="n">
-        <v>7.707317308813799e-06</v>
+        <v>0.005793867167085409</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3946430683135986</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4780189990997314</v>
       </c>
       <c r="W230" t="n">
-        <v>0.004094135947525501</v>
+        <v>0.006951545830816031</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4275059700012207</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4779003858566284</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0009152544080279768</v>
+        <v>0.002539597218856215</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4035358428955078</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4782559871673584</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0006246784469112754</v>
+        <v>0.005583100020885468</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4098629951477051</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4782385230064392</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002362877130508423</v>
+        <v>0.004675212781876326</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3988161087036133</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5015837550163269</v>
       </c>
       <c r="W234" t="n">
-        <v>0.005951168481260538</v>
+        <v>0.01056118868291378</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3977689743041992</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9490149617195129</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001442656270228326</v>
+        <v>0.303872138261795</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3982951641082764</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.490691602230072</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06772614270448685</v>
+        <v>0.008537101559340954</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4509050846099854</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5131295323371887</v>
       </c>
       <c r="W237" t="n">
-        <v>0.03121067211031914</v>
+        <v>0.003871881868690252</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3926410675048828</v>
       </c>
       <c r="V238" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5320954322814941</v>
       </c>
       <c r="W238" t="n">
-        <v>0.05106202512979507</v>
+        <v>0.01944752037525177</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3908169269561768</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.533904492855072</v>
       </c>
       <c r="W239" t="n">
-        <v>0.006491473875939846</v>
+        <v>0.02047405205667019</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909370899200439</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5541938543319702</v>
       </c>
       <c r="W240" t="n">
-        <v>0.002032868098467588</v>
+        <v>0.02665277197957039</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3945589065551758</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4869808554649353</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001719369669444859</v>
+        <v>0.008541816845536232</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8967499732971191</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4830119609832764</v>
       </c>
       <c r="W242" t="n">
-        <v>0.11237882822752</v>
+        <v>0.1711791455745697</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8810999393463135</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4868367314338684</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1079054176807404</v>
+        <v>0.155443474650383</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8963069915771484</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5633495450019836</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2118720859289169</v>
+        <v>0.1108606606721878</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8787069320678711</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.516312837600708</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09611600637435913</v>
+        <v>0.1313294768333435</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9178488254547119</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.4929531812667847</v>
       </c>
       <c r="W246" t="n">
-        <v>0.07336718589067459</v>
+        <v>0.1805363148450851</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8813159465789795</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5495654940605164</v>
       </c>
       <c r="W247" t="n">
-        <v>0.06423939764499664</v>
+        <v>0.1100583598017693</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8960199356079102</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9464688897132874</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2115946263074875</v>
+        <v>0.002545096911489964</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8962609767913818</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.485338568687439</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1764700412750244</v>
+        <v>0.1688572317361832</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.938507080078125</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5360186696052551</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1335543245077133</v>
+        <v>0.16199691593647</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8854689598083496</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5339743494987488</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06809917837381363</v>
+        <v>0.1235484629869461</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8799130916595459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9598001837730408</v>
       </c>
       <c r="W252" t="n">
-        <v>0.06044378876686096</v>
+        <v>0.006381947547197342</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8796958923339844</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9609097838401794</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1089271754026413</v>
+        <v>0.006595696322619915</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9464190006256104</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4782270789146423</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1071780920028687</v>
+        <v>0.2192036807537079</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8841180801391602</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4728508591651917</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1763927042484283</v>
+        <v>0.1691407263278961</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8769199848175049</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9859990477561951</v>
       </c>
       <c r="W256" t="n">
-        <v>0.07406019419431686</v>
+        <v>0.01189824193716049</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813910484313965</v>
       </c>
       <c r="V257" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8627477884292603</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1644247174263</v>
+        <v>0.0003475711564533412</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9251289367675781</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5162208080291748</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2395565807819366</v>
+        <v>0.1672058552503586</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8804678916931152</v>
       </c>
       <c r="V259" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4838191866874695</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1081927195191383</v>
+        <v>0.1573302000761032</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8741600513458252</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5137208700180054</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1919633746147156</v>
+        <v>0.1299163997173309</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8746449947357178</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4878264665603638</v>
       </c>
       <c r="W261" t="n">
-        <v>0.05338300764560699</v>
+        <v>0.1496285796165466</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5848910808563232</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.9315411448478699</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0536373108625412</v>
+        <v>0.1201662644743919</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5360989570617676</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5340120792388916</v>
       </c>
       <c r="W263" t="n">
-        <v>0.003956710919737816</v>
+        <v>4.355058990768157e-06</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.526386022567749</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.946147620677948</v>
       </c>
       <c r="W264" t="n">
-        <v>8.042157787713222e-06</v>
+        <v>0.1761997938156128</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.529965877532959</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4783784151077271</v>
       </c>
       <c r="W265" t="n">
-        <v>0.009167121723294258</v>
+        <v>0.0026612663641572</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243890285491943</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4783798456192017</v>
       </c>
       <c r="W266" t="n">
-        <v>0.004455883521586657</v>
+        <v>0.002116844989359379</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V267" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4720085263252258</v>
       </c>
       <c r="W267" t="n">
-        <v>0.07729679346084595</v>
+        <v>0.003848521737381816</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5288372039794922</v>
       </c>
       <c r="V268" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5338720679283142</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0005488415481522679</v>
+        <v>2.534985469537787e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5306789875030518</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4868941903114319</v>
       </c>
       <c r="W269" t="n">
-        <v>0.005936936940997839</v>
+        <v>0.001917108427733183</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5343441963195801</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5144555568695068</v>
       </c>
       <c r="W270" t="n">
-        <v>0.009746012277901173</v>
+        <v>0.0003955579886678606</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286099910736084</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5357919335365295</v>
       </c>
       <c r="W271" t="n">
-        <v>0.000701863958965987</v>
+        <v>5.158029671292752e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5500049591064453</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.8617916703224182</v>
       </c>
       <c r="W272" t="n">
-        <v>0.005608639679849148</v>
+        <v>0.09721095114946365</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5278940200805664</v>
       </c>
       <c r="V273" t="n">
-        <v>0.474732518196106</v>
+        <v>0.484219491481781</v>
       </c>
       <c r="W273" t="n">
-        <v>0.002826145384460688</v>
+        <v>0.001907464466057718</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5435159206390381</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4946271777153015</v>
       </c>
       <c r="W274" t="n">
-        <v>0.00776762655004859</v>
+        <v>0.002390109235420823</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5272839069366455</v>
       </c>
       <c r="V275" t="n">
-        <v>0.56879723072052</v>
+        <v>0.8677636981010437</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001723356079310179</v>
+        <v>0.1159264892339706</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5261969566345215</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5503622889518738</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0001025405945256352</v>
+        <v>0.0005839632940478623</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.531702995300293</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4697260856628418</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0004778180446010083</v>
+        <v>0.00384113728068769</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5773441791534424</v>
       </c>
       <c r="V278" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4853793382644653</v>
       </c>
       <c r="W278" t="n">
-        <v>0.05721971765160561</v>
+        <v>0.008457532152533531</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329620838165283</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4724420309066772</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02436364814639091</v>
+        <v>0.003662676783278584</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5262889862060547</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4833468794822693</v>
       </c>
       <c r="W280" t="n">
-        <v>0.00153117801528424</v>
+        <v>0.001844024518504739</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5365738868713379</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5339346528053284</v>
       </c>
       <c r="W281" t="n">
-        <v>0.003801800310611725</v>
+        <v>6.965556622162694e-06</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.411963939666748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5138142108917236</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1169171258807182</v>
+        <v>0.01037347782403231</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4049649238586426</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4779754877090454</v>
       </c>
       <c r="W283" t="n">
-        <v>0.04854746162891388</v>
+        <v>0.00533054256811738</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4051148891448975</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5010698437690735</v>
       </c>
       <c r="W284" t="n">
-        <v>0.009198102168738842</v>
+        <v>0.009207352995872498</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4043929576873779</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4852195978164673</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01045842282474041</v>
+        <v>0.006532945670187473</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4033989906311035</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4843930006027222</v>
       </c>
       <c r="W286" t="n">
-        <v>0.006951326970010996</v>
+        <v>0.006560029461979866</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4018690586090088</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4715760350227356</v>
       </c>
       <c r="W287" t="n">
-        <v>0.004168027546256781</v>
+        <v>0.004859062377363443</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4015181064605713</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4855103492736816</v>
       </c>
       <c r="W288" t="n">
-        <v>0.003220694372430444</v>
+        <v>0.007054696790874004</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4263439178466797</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5489292144775391</v>
       </c>
       <c r="W289" t="n">
-        <v>0.02100135385990143</v>
+        <v>0.01502715516835451</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3996281623840332</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5321885347366333</v>
       </c>
       <c r="W290" t="n">
-        <v>0.05957455560564995</v>
+        <v>0.01757225207984447</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.401324987411499</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.942115843296051</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0005265708896331489</v>
+        <v>0.2924547493457794</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4175078868865967</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9274738430976868</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05208822712302208</v>
+        <v>0.2600652873516083</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4027259349822998</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.9094933271408081</v>
       </c>
       <c r="W293" t="n">
-        <v>0.06663846224546432</v>
+        <v>0.2568131983280182</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3996129035949707</v>
       </c>
       <c r="V294" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4672785401344299</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02622164227068424</v>
+        <v>0.004578638356178999</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3984138965606689</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.4771229028701782</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0002588364877738059</v>
+        <v>0.006195107474923134</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4002411365509033</v>
       </c>
       <c r="V296" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5142303705215454</v>
       </c>
       <c r="W296" t="n">
-        <v>0.005430171731859446</v>
+        <v>0.01299354527145624</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4017670154571533</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4667099714279175</v>
       </c>
       <c r="W297" t="n">
-        <v>0.173393189907074</v>
+        <v>0.004217587411403656</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4008970260620117</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.946962833404541</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003356892382726073</v>
+        <v>0.2981878519058228</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4001319408416748</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5322026014328003</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0221526212990284</v>
+        <v>0.01744265854358673</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019038677215576</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5086104273796082</v>
       </c>
       <c r="W300" t="n">
-        <v>0.001136832521297038</v>
+        <v>0.01138629019260406</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3994951248168945</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5490632653236389</v>
       </c>
       <c r="W301" t="n">
-        <v>0.00133419397752732</v>
+        <v>0.02237062901258469</v>
       </c>
     </row>
     <row r="302" spans="1:23">
